--- a/01.日常记录/02.Food.xlsx
+++ b/01.日常记录/02.Food.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C7313623-CDD0-4CFE-B3E2-1B0C57EAA220}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{BCCE9B6B-9F37-4841-A399-2AC0092FF4A1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -50,7 +50,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>x</t>
+    <t>苹果x1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛奶x1，鸡蛋x2，橙子x0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小西红柿x18个</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡胸肉x230g，橙子x0.5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -59,7 +75,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -143,7 +159,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -430,7 +446,7 @@
   <dimension ref="B2:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -471,20 +487,28 @@
         <v>43203</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>43204</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="3">

--- a/01.日常记录/02.Food.xlsx
+++ b/01.日常记录/02.Food.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{BCCE9B6B-9F37-4841-A399-2AC0092FF4A1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6EA9E4A5-4A46-4097-9B91-09EFC8436B42}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -67,6 +67,14 @@
   </si>
   <si>
     <t>鸡胸肉x230g，橙子x0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小西红柿x20个</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡胸肉x210g，橙子x0.5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -446,7 +454,7 @@
   <dimension ref="B2:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -514,9 +522,15 @@
       <c r="B6" s="3">
         <v>43205</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="3">

--- a/01.日常记录/02.Food.xlsx
+++ b/01.日常记录/02.Food.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{6EA9E4A5-4A46-4097-9B91-09EFC8436B42}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{EB751F25-54CE-443F-99B6-C783CA7230C8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -62,19 +62,31 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>小西红柿x18个</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>鸡胸肉x230g，橙子x0.5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>小西红柿x20个</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>鸡胸肉x210g，橙子x0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛奶x1，鸡蛋x2，黄瓜x1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛奶x1，面包片x2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小西红柿x20，面包片x2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小西红柿x18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄瓜x1，面包片x2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -454,7 +466,7 @@
   <dimension ref="B2:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -512,10 +524,10 @@
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
@@ -526,19 +538,25 @@
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <v>43206</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="3">

--- a/01.日常记录/02.Food.xlsx
+++ b/01.日常记录/02.Food.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{EB751F25-54CE-443F-99B6-C783CA7230C8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1959C80A-232D-4BDA-A781-71125F389335}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t>黄瓜x1，面包片x2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛奶x1，鸡蛋x2，面包片x2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红菜椒x0.5，花菜x0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>面包片x2.5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -466,7 +478,7 @@
   <dimension ref="B2:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -562,9 +574,15 @@
       <c r="B8" s="3">
         <v>43207</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="3">

--- a/01.日常记录/02.Food.xlsx
+++ b/01.日常记录/02.Food.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{1959C80A-232D-4BDA-A781-71125F389335}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{431B053D-565B-4587-9CD2-0E07A1E64CD2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -99,6 +99,14 @@
   </si>
   <si>
     <t>面包片x2.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛奶x1，鸡蛋x2，苹果x1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挂面x400g，娃娃菜x0.5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -153,7 +161,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -176,6 +184,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -183,7 +217,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -192,6 +226,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -478,7 +518,7 @@
   <dimension ref="B2:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -588,9 +628,13 @@
       <c r="B9" s="3">
         <v>43208</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="5"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
@@ -1025,6 +1069,9 @@
       <c r="E63" s="2"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D9:E9"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/01.日常记录/02.Food.xlsx
+++ b/01.日常记录/02.Food.xlsx
@@ -1,17 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{431B053D-565B-4587-9CD2-0E07A1E64CD2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24030"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="food" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -20,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -102,22 +104,34 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>挂面x400g，娃娃菜x0.5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>牛奶x1，鸡蛋x2，苹果x1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>挂面x400g，娃娃菜x0.5</t>
+    <t>鸡蛋x2，娃娃菜x7，咸萝卜条若干</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>西红柿鸡蛋x200g，牛肉100g，米饭x100g，莴笋x200g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>娃娃菜x200g，米饭x100g，腊鸭肉x200g</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,6 +161,29 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -171,53 +208,55 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -234,10 +273,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="4">
+    <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -295,7 +339,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -330,7 +374,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -507,26 +551,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D10" sqref="D10:E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="5" width="30.77734375" customWidth="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="5" width="42" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="20.399999999999999" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" ht="19">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,7 +585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5">
       <c r="B3" s="3">
         <v>43202</v>
       </c>
@@ -554,7 +599,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5">
       <c r="B4" s="3">
         <v>43203</v>
       </c>
@@ -568,7 +613,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5">
       <c r="B5" s="3">
         <v>43204</v>
       </c>
@@ -582,7 +627,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5">
       <c r="B6" s="3">
         <v>43205</v>
       </c>
@@ -596,7 +641,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5">
       <c r="B7" s="3">
         <v>43206</v>
       </c>
@@ -610,7 +655,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5">
       <c r="B8" s="3">
         <v>43207</v>
       </c>
@@ -624,27 +669,33 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5">
       <c r="B9" s="3">
         <v>43208</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5">
       <c r="B10" s="3">
         <v>43209</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
       <c r="B11" s="3">
         <v>43210</v>
       </c>
@@ -652,7 +703,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5">
       <c r="B12" s="3">
         <v>43211</v>
       </c>
@@ -660,7 +711,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5">
       <c r="B13" s="3">
         <v>43212</v>
       </c>
@@ -668,7 +719,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5">
       <c r="B14" s="3">
         <v>43213</v>
       </c>
@@ -676,7 +727,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5">
       <c r="B15" s="3">
         <v>43214</v>
       </c>
@@ -684,7 +735,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5">
       <c r="B16" s="3">
         <v>43215</v>
       </c>
@@ -692,7 +743,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5">
       <c r="B17" s="3">
         <v>43216</v>
       </c>
@@ -700,7 +751,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5">
       <c r="B18" s="3">
         <v>43217</v>
       </c>
@@ -708,7 +759,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5">
       <c r="B19" s="3">
         <v>43218</v>
       </c>
@@ -716,7 +767,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5">
       <c r="B20" s="3">
         <v>43219</v>
       </c>
@@ -724,7 +775,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5">
       <c r="B21" s="3">
         <v>43220</v>
       </c>
@@ -732,7 +783,7 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5">
       <c r="B22" s="3">
         <v>43221</v>
       </c>
@@ -740,7 +791,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5">
       <c r="B23" s="3">
         <v>43222</v>
       </c>
@@ -748,7 +799,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5">
       <c r="B24" s="3">
         <v>43223</v>
       </c>
@@ -756,7 +807,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5">
       <c r="B25" s="3">
         <v>43224</v>
       </c>
@@ -764,7 +815,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5">
       <c r="B26" s="3">
         <v>43225</v>
       </c>
@@ -772,7 +823,7 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5">
       <c r="B27" s="3">
         <v>43226</v>
       </c>
@@ -780,7 +831,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5">
       <c r="B28" s="3">
         <v>43227</v>
       </c>
@@ -788,7 +839,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5">
       <c r="B29" s="3">
         <v>43228</v>
       </c>
@@ -796,7 +847,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5">
       <c r="B30" s="3">
         <v>43229</v>
       </c>
@@ -804,7 +855,7 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5">
       <c r="B31" s="3">
         <v>43230</v>
       </c>
@@ -812,7 +863,7 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5">
       <c r="B32" s="3">
         <v>43231</v>
       </c>
@@ -820,7 +871,7 @@
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5">
       <c r="B33" s="3">
         <v>43232</v>
       </c>
@@ -828,7 +879,7 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5">
       <c r="B34" s="3">
         <v>43233</v>
       </c>
@@ -836,7 +887,7 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5">
       <c r="B35" s="3">
         <v>43234</v>
       </c>
@@ -844,7 +895,7 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5">
       <c r="B36" s="3">
         <v>43235</v>
       </c>
@@ -852,7 +903,7 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5">
       <c r="B37" s="3">
         <v>43236</v>
       </c>
@@ -860,7 +911,7 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5">
       <c r="B38" s="3">
         <v>43237</v>
       </c>
@@ -868,7 +919,7 @@
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5">
       <c r="B39" s="3">
         <v>43238</v>
       </c>
@@ -876,7 +927,7 @@
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5">
       <c r="B40" s="3">
         <v>43239</v>
       </c>
@@ -884,7 +935,7 @@
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5">
       <c r="B41" s="3">
         <v>43240</v>
       </c>
@@ -892,7 +943,7 @@
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5">
       <c r="B42" s="3">
         <v>43241</v>
       </c>
@@ -900,7 +951,7 @@
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5">
       <c r="B43" s="3">
         <v>43242</v>
       </c>
@@ -908,7 +959,7 @@
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5">
       <c r="B44" s="3">
         <v>43243</v>
       </c>
@@ -916,7 +967,7 @@
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5">
       <c r="B45" s="3">
         <v>43244</v>
       </c>
@@ -924,7 +975,7 @@
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5">
       <c r="B46" s="3">
         <v>43245</v>
       </c>
@@ -932,7 +983,7 @@
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5">
       <c r="B47" s="3">
         <v>43246</v>
       </c>
@@ -940,7 +991,7 @@
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5">
       <c r="B48" s="3">
         <v>43247</v>
       </c>
@@ -948,7 +999,7 @@
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5">
       <c r="B49" s="3">
         <v>43248</v>
       </c>
@@ -956,7 +1007,7 @@
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5">
       <c r="B50" s="3">
         <v>43249</v>
       </c>
@@ -964,7 +1015,7 @@
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5">
       <c r="B51" s="3">
         <v>43250</v>
       </c>
@@ -972,7 +1023,7 @@
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5">
       <c r="B52" s="3">
         <v>43251</v>
       </c>
@@ -980,7 +1031,7 @@
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5">
       <c r="B53" s="3">
         <v>43252</v>
       </c>
@@ -988,7 +1039,7 @@
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5">
       <c r="B54" s="3">
         <v>43253</v>
       </c>
@@ -996,7 +1047,7 @@
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5">
       <c r="B55" s="3">
         <v>43254</v>
       </c>
@@ -1004,7 +1055,7 @@
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:5">
       <c r="B56" s="3">
         <v>43255</v>
       </c>
@@ -1012,7 +1063,7 @@
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5">
       <c r="B57" s="3">
         <v>43256</v>
       </c>
@@ -1020,7 +1071,7 @@
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:5">
       <c r="B58" s="3">
         <v>43257</v>
       </c>
@@ -1028,7 +1079,7 @@
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5">
       <c r="B59" s="3">
         <v>43258</v>
       </c>
@@ -1036,7 +1087,7 @@
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:5">
       <c r="B60" s="3">
         <v>43259</v>
       </c>
@@ -1044,7 +1095,7 @@
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:5">
       <c r="B61" s="3">
         <v>43260</v>
       </c>
@@ -1052,7 +1103,7 @@
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:5">
       <c r="B62" s="3">
         <v>43261</v>
       </c>
@@ -1060,7 +1111,7 @@
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:5">
       <c r="B63" s="3">
         <v>43262</v>
       </c>
@@ -1074,6 +1125,11 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/01.日常记录/02.Food.xlsx
+++ b/01.日常记录/02.Food.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -121,6 +121,18 @@
   </si>
   <si>
     <t>娃娃菜x200g，米饭x100g，腊鸭肉x200g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆浆x1，鸡蛋x1，鸡蛋饼x2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武昌鱼x150g，西红柿炒鸡蛋x150g，豆角x50g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>米饭x100g，西红柿鸡蛋x150g，木耳x100g，莴笋x200g</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -267,13 +279,13 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -551,7 +563,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -562,7 +574,7 @@
   <dimension ref="B2:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:E10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -676,10 +688,10 @@
       <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="2:5">
       <c r="B10" s="3">
@@ -688,10 +700,10 @@
       <c r="C10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="4" t="s">
         <v>24</v>
       </c>
     </row>
@@ -699,9 +711,15 @@
       <c r="B11" s="3">
         <v>43210</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="3">

--- a/01.日常记录/02.Food.xlsx
+++ b/01.日常记录/02.Food.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -133,6 +133,18 @@
   </si>
   <si>
     <t>米饭x100g，西红柿鸡蛋x150g，木耳x100g，莴笋x200g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆浆x1，鸡蛋x2，小馒头x1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>米饭x100g，西红柿炒鸡蛋x150g，腊鱼x3块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水煮鸡肉x250g，凉拌芹菜x200g，豆皮x50g，莴笋x100g</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -260,11 +272,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -289,9 +303,11 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -563,7 +579,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -574,7 +590,7 @@
   <dimension ref="B2:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -725,9 +741,15 @@
       <c r="B12" s="3">
         <v>43211</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="3">

--- a/01.日常记录/02.Food.xlsx
+++ b/01.日常记录/02.Food.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -144,7 +144,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>豆浆x1，鸡蛋x2，小馒头x3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆浆x1，鸡蛋x2，小馒头x2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>米饭x50g，牛肉x100g，西红柿炒鸡蛋x150g，青菜x100g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>水煮鸡肉x250g，凉拌芹菜x200g，豆皮x50g，莴笋x100g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水煮鸡肉x200g，米饭x50g，莴笋x100g，</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -272,11 +288,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -303,11 +321,13 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="8">
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -579,7 +599,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -590,7 +610,7 @@
   <dimension ref="B2:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -745,7 +765,7 @@
         <v>28</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>29</v>
@@ -755,15 +775,23 @@
       <c r="B13" s="3">
         <v>43212</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="3">
         <v>43213</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>

--- a/01.日常记录/02.Food.xlsx
+++ b/01.日常记录/02.Food.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -161,6 +161,14 @@
   </si>
   <si>
     <t>水煮鸡肉x200g，米饭x50g，莴笋x100g，</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>米饭x50g，生菜x200g，扁鱼x100g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>辣椒x50g，青菜x50g，炒韭菜x100g</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -599,7 +607,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -610,7 +618,7 @@
   <dimension ref="B2:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -792,8 +800,12 @@
       <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="3">

--- a/01.日常记录/02.Food.xlsx
+++ b/01.日常记录/02.Food.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -144,10 +144,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>豆浆x1，鸡蛋x2，小馒头x3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>豆浆x1，鸡蛋x2，小馒头x2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -169,6 +165,22 @@
   </si>
   <si>
     <t>辣椒x50g，青菜x50g，炒韭菜x100g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛奶x1，鸡蛋x2，小馒头x3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛奶x1，鸡蛋x2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>米饭x50g，西红柿炒鸡蛋x150g，鸡肉x100g，青菜x100g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>米饭x50g，青菜x100g，水煮鸡肉x200g</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -296,11 +308,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -329,13 +345,17 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="12">
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -607,7 +627,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -618,7 +638,7 @@
   <dimension ref="B2:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -773,7 +793,7 @@
         <v>28</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>29</v>
@@ -784,13 +804,13 @@
         <v>43212</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="14" spans="2:5">
@@ -798,22 +818,28 @@
         <v>43213</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="3">
         <v>43214</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="3">

--- a/01.日常记录/02.Food.xlsx
+++ b/01.日常记录/02.Food.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -181,6 +181,18 @@
   </si>
   <si>
     <t>米饭x50g，青菜x100g，水煮鸡肉x200g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>豆浆x1，鸡蛋x1，鸡蛋饼x1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>米饭x50g，青菜x100g，腔骨炖玉米x200g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>米饭x50g，西红柿炒鸡蛋x100g，莴笋x50g，瘦肉x20g</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -308,11 +320,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -345,17 +361,21 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="16">
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -627,7 +647,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -638,7 +658,7 @@
   <dimension ref="B2:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -845,9 +865,15 @@
       <c r="B16" s="3">
         <v>43215</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="3">

--- a/01.日常记录/02.Food.xlsx
+++ b/01.日常记录/02.Food.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -184,15 +184,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>米饭x50g，青菜x100g，腔骨炖玉米x200g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>米饭x50g，西红柿炒鸡蛋x100g，莴笋x50g，瘦肉x20g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>豆浆x1，鸡蛋x1，鸡蛋饼x1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>米饭x50g，青菜x100g，腔骨炖玉米x200g</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>米饭x50g，西红柿炒鸡蛋x100g，莴笋x50g，瘦肉x20g</t>
+    <t>鸡蛋x2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>米饭x50g，青菜x100g，莴笋炒肉x200g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>青菜x100g，莴笋炒肉x100g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>米饭x100g，青菜x100g，莴笋炒肉x200g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>米饭x50g，青菜x100g，鸡肉x200g，素鸡x50g</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -320,11 +340,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="16">
+  <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -361,7 +389,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="16">
+  <cellStyles count="24">
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
@@ -369,6 +397,10 @@
     <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
@@ -376,6 +408,10 @@
     <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -647,7 +683,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -658,7 +694,7 @@
   <dimension ref="B2:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -866,30 +902,42 @@
         <v>43215</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" s="3">
         <v>43216</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" s="3">
         <v>43217</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" s="3">

--- a/01.日常记录/02.Food.xlsx
+++ b/01.日常记录/02.Food.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24030"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12640"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28700" windowHeight="17180"/>
   </bookViews>
   <sheets>
     <sheet name="food" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
   <si>
     <t>日期</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -212,7 +212,78 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>\</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>面条x200g，鸡蛋x1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>面条x200g</t>
+  </si>
+  <si>
+    <t>炸鸡x250g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>肯德基外卖x1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛奶x1，鸡蛋x1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>炖鸡肉x100g，鸡蛋x1，猪肉x100g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>米饭x100g，青菜x100g，西红柿鸡蛋x100g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>米饭x50g，青菜x100g，鸡肉x200g，素鸡x50g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>面条x200g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼头x100g，花菜x50g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>米饭x100g，青菜x100g，西红柿鸡蛋x100g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>米饭x150g，青菜x100g，西红柿鸡蛋x100g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛奶x1，鸡蛋饼x1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>米饭x50g，青菜x100g，排骨x200g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>米饭x50g，青菜x100g，排骨x200g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小肉包x5，水煎包x2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>烤鱼x400g，豆皮x50g，青笋x50g，辣子鸡x100g</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -340,11 +411,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -389,7 +470,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="24">
+  <cellStyles count="34">
     <cellStyle name="超链接" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
@@ -401,6 +482,11 @@
     <cellStyle name="超链接" xfId="18" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="20" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="32" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
@@ -412,6 +498,11 @@
     <cellStyle name="访问过的超链接" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -693,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -933,7 +1024,7 @@
         <v>43</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>46</v>
@@ -943,65 +1034,111 @@
       <c r="B19" s="3">
         <v>43218</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="20" spans="2:5">
       <c r="B20" s="3">
         <v>43219</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="21" spans="2:5">
       <c r="B21" s="3">
         <v>43220</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" s="3">
         <v>43221</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="23" spans="2:5">
       <c r="B23" s="3">
         <v>43222</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="C23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="24" spans="2:5">
       <c r="B24" s="3">
         <v>43223</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="C24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="25" spans="2:5">
       <c r="B25" s="3">
         <v>43224</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="26" spans="2:5">
       <c r="B26" s="3">
         <v>43225</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="C26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="27" spans="2:5">
       <c r="B27" s="3">
